--- a/Schnelle Neutronen/Rechnungenj.xlsx
+++ b/Schnelle Neutronen/Rechnungenj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\Schnelle Neutronen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDE90BA-C80D-4F68-85E3-1FF4B088A247}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EEC28C-2F9E-4F4E-8114-5F3108F7EDD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E509375F-4A18-4F14-A918-C56CF2A6E96D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Photon-Energie</t>
   </si>
@@ -112,6 +112,45 @@
   </si>
   <si>
     <t>r0/fm</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>t1-t2=</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cm/ns</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>t_Start 1</t>
+  </si>
+  <si>
+    <t>t_Start 2</t>
+  </si>
+  <si>
+    <t>Messung 1</t>
+  </si>
+  <si>
+    <t>Messung 2</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>MeV</t>
   </si>
 </sst>
 </file>
@@ -147,8 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01060F44-10F1-4358-90D7-22CC0D58E8C3}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +514,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
@@ -838,6 +879,135 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <f>493*0.101</f>
+        <v>49.793000000000006</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <f>465*0.101</f>
+        <v>46.965000000000003</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17">
+        <v>3.15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <f>B17+H21</f>
+        <v>49.898000000000003</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <f>E17+H22</f>
+        <v>48.631666666666668</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>H18/B18</f>
+        <v>1.0020441701070182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <f>H17/E18</f>
+        <v>6.4772610439014361E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>H17/H19</f>
+        <v>0.105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f>H18/H19</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>A20*0.01*10^9</f>
+        <v>10020441.701070182</v>
+      </c>
+      <c r="C23" s="1">
+        <f>B23/D23</f>
+        <v>3.346929258530041E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <f>1.97*10^(-7)/(6.58*10^(-16))</f>
+        <v>299392097.26443762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f>0.5*C23^2*939</f>
+        <v>0.52593086992232896</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schnelle Neutronen/Rechnungenj.xlsx
+++ b/Schnelle Neutronen/Rechnungenj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\Schnelle Neutronen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EEC28C-2F9E-4F4E-8114-5F3108F7EDD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A023CAB2-5A7F-48D8-84DD-360EC7BAA978}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E509375F-4A18-4F14-A918-C56CF2A6E96D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Photon-Energie</t>
   </si>
@@ -151,13 +151,32 @@
   </si>
   <si>
     <t>MeV</t>
+  </si>
+  <si>
+    <t>eV</t>
+  </si>
+  <si>
+    <t>Joule vs. eV</t>
+  </si>
+  <si>
+    <t>Energie in J</t>
+  </si>
+  <si>
+    <t>Anteil von c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,14 +202,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01060F44-10F1-4358-90D7-22CC0D58E8C3}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I19"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="87" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,16 +650,16 @@
         <v>7.3562466770605073E-13</v>
       </c>
       <c r="N3">
-        <f>(112)^(1/3)</f>
-        <v>4.8202845283504585</v>
+        <f>G3^(1/3)</f>
+        <v>4.8260161443660934</v>
       </c>
       <c r="O3">
         <f>M3/N3</f>
-        <v>1.5261021696530176E-13</v>
+        <v>1.5242896950620883E-13</v>
       </c>
       <c r="P3">
         <f>O3*10^13</f>
-        <v>1.5261021696530175</v>
+        <v>1.5242896950620883</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -673,16 +695,16 @@
         <v>5.4816666109543113E-13</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N7" si="4">(112)^(1/3)</f>
-        <v>4.8202845283504585</v>
+        <f t="shared" ref="N4:N7" si="4">G4^(1/3)</f>
+        <v>2.9999999999999996</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O7" si="5">M4/N4</f>
-        <v>1.1372081002094254E-13</v>
+        <v>1.8272222036514373E-13</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P7" si="6">O4*10^13</f>
-        <v>1.1372081002094254</v>
+        <v>1.8272222036514372</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -726,15 +748,15 @@
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>4.8202845283504585</v>
+        <v>5.9154816997007158</v>
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1.8195638353914497E-13</v>
+        <v>1.4826882829385086E-13</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
-        <v>1.8195638353914496</v>
+        <v>1.4826882829385086</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -778,15 +800,15 @@
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>4.8202845283504585</v>
+        <v>3.821302334566119</v>
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>1.3678331723507722E-13</v>
+        <v>1.7254183262093495E-13</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
-        <v>1.3678331723507722</v>
+        <v>1.7254183262093494</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -823,15 +845,15 @@
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>4.8202845283504585</v>
+        <v>3.9895560882429004</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>1.4065034601790514E-13</v>
+        <v>1.6993737444003289E-13</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
-        <v>1.4065034601790514</v>
+        <v>1.699373744400329</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -844,6 +866,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>3000/B8*1024</f>
+        <v>561.71325915540035</v>
+      </c>
       <c r="B10">
         <f>3000/B8</f>
         <v>0.54854810464394566</v>
@@ -879,6 +905,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f>(6.6*10^(-34))^2/(2*(2.35*10^(-15))^2*1.6*10^(-27))</f>
+        <v>2.4649162516976E-11</v>
+      </c>
+      <c r="O14">
+        <f>(6.6*10^(-34)*3*10^8)/((2.35*10^(-15)))</f>
+        <v>8.4255319148936164E-11</v>
+      </c>
+    </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
@@ -886,8 +922,19 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f>M14/(1.6*10^(-19))</f>
+        <v>154057265.73109999</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16">
+        <f>O14/(1.6*10^(-19))</f>
+        <v>526595744.68085098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -914,21 +961,32 @@
       <c r="I17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f>M16/10^6</f>
+        <v>154.05726573109999</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17">
+        <f>O16/10^6</f>
+        <v>526.595744680851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
-        <f>B17+H21</f>
-        <v>49.898000000000003</v>
+        <f>B17+H21-30</f>
+        <v>19.898000000000003</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
       </c>
       <c r="E18">
-        <f>E17+H22</f>
-        <v>48.631666666666668</v>
+        <f>E17+H22-30</f>
+        <v>18.631666666666668</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -940,7 +998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>33</v>
       </c>
@@ -951,23 +1009,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>H18/B18</f>
-        <v>1.0020441701070182</v>
+        <v>2.5128153583274697</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20">
         <f>H17/E18</f>
-        <v>6.4772610439014361E-2</v>
+        <v>0.16906700062617405</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H21">
         <f>H17/H19</f>
         <v>0.105</v>
@@ -976,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H22">
         <f>H18/H19</f>
         <v>1.6666666666666667</v>
@@ -985,26 +1043,81 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>A20*0.01*10^9</f>
-        <v>10020441.701070182</v>
+        <v>25128153.583274696</v>
       </c>
       <c r="C23" s="1">
         <f>B23/D23</f>
-        <v>3.346929258530041E-2</v>
+        <v>8.376051194424898E-2</v>
       </c>
       <c r="D23" s="1">
-        <f>1.97*10^(-7)/(6.58*10^(-16))</f>
-        <v>299392097.26443762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f>0.5*C23^2*939</f>
-        <v>0.52593086992232896</v>
+        <v>3.2939290680658764</v>
       </c>
       <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f>B23</f>
+        <v>25128153.583274696</v>
+      </c>
+      <c r="D25" s="2">
+        <f>B25/(3*10^8)</f>
+        <v>8.376051194424898E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>0.5*B23*B23*1.6*10^(-27)</f>
+        <v>5.0513928200371279E-13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2">
+        <f>A20/H19</f>
+        <v>8.3760511944248994E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>1.6*10^(-19)</f>
+        <v>1.6000000000000002E-19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B26/B28</f>
+        <v>3157120.5125232046</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>B29/(10^6)</f>
+        <v>3.1571205125232047</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
       </c>
     </row>
